--- a/研究方法抽取代码/forTest2.xlsx
+++ b/研究方法抽取代码/forTest2.xlsx
@@ -1,168 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\临时\自动word部分内容改拟真手写体宏封包\队列\code\研究方法抽取代码\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\yuan\work\sjPaper\code\研究方法抽取代码\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF40105F-10A9-44BA-9AC4-A8E3E23701FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27945" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
-  <si>
-    <t>Western Australian Pregnancy Cohort Study</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Abstract</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALSPAC Generation Study</t>
-  </si>
-  <si>
-    <t>Adolescent Brain Cognitive Development Study</t>
-  </si>
-  <si>
-    <t>Barwon Infant Study of Environmental Exposure and Development</t>
-  </si>
-  <si>
-    <t>Beginning School Study</t>
-  </si>
-  <si>
-    <t>Brisbane Longitudinal Twin and Family Study</t>
-  </si>
-  <si>
-    <t>Cambridge Baby Growth Study</t>
   </si>
   <si>
     <t>Childhood Cancer Survivor Study</t>
   </si>
   <si>
-    <t>Childhood Determinants of Adult Health Study</t>
-  </si>
-  <si>
-    <t>Childhood to Adolescence Transition Study</t>
-  </si>
-  <si>
-    <t>Children of the 90s</t>
-  </si>
-  <si>
-    <t>Children of the Northern Finland Birth Cohort 1966</t>
-  </si>
-  <si>
-    <t>CLASPIC cohort</t>
-  </si>
-  <si>
-    <t>Early Development Instrument</t>
-  </si>
-  <si>
-    <t>Early Nutrition and Neurodevelopment Study</t>
-  </si>
-  <si>
-    <t>Early Years Longitudinal Study</t>
-  </si>
-  <si>
     <t>Environmental Determinants of Diabetes in the Young</t>
   </si>
   <si>
-    <t>Family Life, Activity, Sun, Health and Eating Study</t>
-  </si>
-  <si>
-    <t>Family Smoking Prevention Trial for Teenagers</t>
-  </si>
-  <si>
-    <t>Finnish Diabetes Prediction and Prevention Study</t>
-  </si>
-  <si>
-    <t>Finnish Type 1 Diabetes Prediction and Prevention Study</t>
-  </si>
-  <si>
-    <t>Finnish Twin Cohort Study</t>
-  </si>
-  <si>
-    <t>Generation XXI cohort</t>
-  </si>
-  <si>
-    <t>German Health Interview and Examination Survey for Children and Adolescents</t>
-  </si>
-  <si>
-    <t>Growth and Development Study</t>
-  </si>
-  <si>
-    <t>Health and Behaviour in Teenagers Study</t>
-  </si>
-  <si>
     <t>Health Survey for England</t>
   </si>
   <si>
-    <t>Healthy Growth Study</t>
-  </si>
-  <si>
-    <t>Helsinki Birth Cohort Study</t>
-  </si>
-  <si>
-    <t>HUNT Study</t>
-  </si>
-  <si>
-    <t>Infant Feeding Practices Study II</t>
-  </si>
-  <si>
-    <t>Infant Health and Development Program</t>
-  </si>
-  <si>
-    <t>International Study of Asthma and Allergies in Childhood</t>
-  </si>
-  <si>
-    <t>JAMAICA study</t>
-  </si>
-  <si>
-    <t>Lifestyles of Women Cohort Study</t>
-  </si>
-  <si>
-    <t>Longitudinal Assessment of Barriers to Care</t>
-  </si>
-  <si>
-    <t>Longitudinal Study of Australian Children</t>
-  </si>
-  <si>
-    <t>Longitudinal Study of Danish Twins</t>
-  </si>
-  <si>
-    <t>Longitudinal Study of Generational Change</t>
-  </si>
-  <si>
-    <t>Longitudinal Study of Independent Children</t>
-  </si>
-  <si>
-    <t>Longitudinal Study of Young People in England</t>
-  </si>
-  <si>
-    <t>Longitudinal Twin Study of Australia</t>
-  </si>
-  <si>
-    <t>Mater-University Study of Pregnancy</t>
-  </si>
-  <si>
-    <t>Melbourne Infant Feeding, Activity and Nutrition Trial</t>
-  </si>
-  <si>
     <t>Millennium Cohort Study</t>
   </si>
   <si>
@@ -172,71 +55,304 @@
     <t>Norwegian Mother and Child Cohort Study</t>
   </si>
   <si>
-    <t>Norwegian Twin Registry</t>
-  </si>
-  <si>
-    <t>Northern Sweden Birth Cohort</t>
-  </si>
-  <si>
-    <t>NutriNet-Santé Study</t>
-  </si>
-  <si>
-    <t>Perth Infant Feeding and Growth Study</t>
-  </si>
-  <si>
-    <t>Pregnancy, Infection and Nutrition Study</t>
-  </si>
-  <si>
-    <t>Prospective Cohort Study of Females Born in the Early 1990s</t>
-  </si>
-  <si>
     <t>Raine Study</t>
   </si>
   <si>
-    <t>Road Traffic Accident Study</t>
-  </si>
-  <si>
-    <t>Study of Early Environment and Development</t>
-  </si>
-  <si>
-    <t>Special Turku Coronary Risk Factor Intervention Project</t>
-  </si>
-  <si>
-    <t>Strong Kids</t>
-  </si>
-  <si>
-    <t>Study of Environmental Influences on Development in Childhood and Adolescence</t>
-  </si>
-  <si>
-    <t>Swedish Longitudinal Twin Registry</t>
-  </si>
-  <si>
     <t>Twins Early Development Study</t>
   </si>
   <si>
-    <t>Twins Early Development Study - Netherlands Twin Register</t>
-  </si>
-  <si>
     <t>TwinsUK</t>
   </si>
   <si>
     <t>UK Millennium Cohort Study</t>
   </si>
   <si>
-    <t>A Better Start to Life study</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>LIFE Child study</t>
+  </si>
+  <si>
+    <t>Longitudinal cohort</t>
+  </si>
+  <si>
+    <t>Japan Environment and Children's Study</t>
+  </si>
+  <si>
+    <t>cross-sectional and case control</t>
+  </si>
+  <si>
+    <t>Danish National Birth Cohort</t>
+  </si>
+  <si>
+    <t>Sub-Cohort Study</t>
+  </si>
+  <si>
+    <t>STROCSS guideline</t>
+  </si>
+  <si>
+    <t>Tohoku Medical Megabank Project</t>
+  </si>
+  <si>
+    <t>TMM Community-Based Cohort Study</t>
+  </si>
+  <si>
+    <t>TMM Birth and Three-Generation Cohort Study</t>
+  </si>
+  <si>
+    <t>PERSIAN Cohort Study</t>
+  </si>
+  <si>
+    <t>1946 Medical Research Council National Survey of Health and Development</t>
+  </si>
+  <si>
+    <t>1958 National Child Development Study</t>
+  </si>
+  <si>
+    <t>1970 British Cohort Study</t>
+  </si>
+  <si>
+    <t>2001 Millennium Cohort Study</t>
+  </si>
+  <si>
+    <t>Framingham Heart Study</t>
+  </si>
+  <si>
+    <t>China birth cohort study</t>
+  </si>
+  <si>
+    <t>MOUNTAINEER</t>
+  </si>
+  <si>
+    <t>CheckMate 012</t>
+  </si>
+  <si>
+    <t>MACS/WIHS Combined Cohort Study</t>
+  </si>
+  <si>
+    <t>UCC-SMART Study</t>
+  </si>
+  <si>
+    <t>TwinsUK cohort</t>
+  </si>
+  <si>
+    <t>BioSHaRE-EU Healthy Obese Project</t>
+  </si>
+  <si>
+    <t>CheckMate 205</t>
+  </si>
+  <si>
+    <t>COMBI-MB trial</t>
+  </si>
+  <si>
+    <t>DELINEATE</t>
+  </si>
+  <si>
+    <t>STROCSS 2019 guideline</t>
+  </si>
+  <si>
+    <t>BioFINDER</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2 Immunity and Reinfection Evaluation</t>
+  </si>
+  <si>
+    <t>Dallas Heart Study</t>
+  </si>
+  <si>
+    <t>Atherosclerosis Risk in Communities Study</t>
+  </si>
+  <si>
+    <t>Cardiovascular Health Study</t>
+  </si>
+  <si>
+    <t>Bern-PCI registry</t>
+  </si>
+  <si>
+    <t>CheckMate 204</t>
+  </si>
+  <si>
+    <t>Heart and Soul study</t>
+  </si>
+  <si>
+    <t>HUNT3</t>
+  </si>
+  <si>
+    <t>SPUM-ACS</t>
+  </si>
+  <si>
+    <t>BECAC</t>
+  </si>
+  <si>
+    <t>Rotterdam Study</t>
+  </si>
+  <si>
+    <t>Retrospective cohort study</t>
+  </si>
+  <si>
+    <t>Avon Longitudinal Study of Parents and Children</t>
+  </si>
+  <si>
+    <t>Great Smoky Mountains Study</t>
+  </si>
+  <si>
+    <t>National Health Insurance Service-Health Screening Cohort</t>
+  </si>
+  <si>
+    <t>Prospective cohort study</t>
+  </si>
+  <si>
+    <t>Adolescent cohort study</t>
+  </si>
+  <si>
+    <t>CheckMate 817</t>
+  </si>
+  <si>
+    <t>KEYNOTE-164</t>
+  </si>
+  <si>
+    <t>Swiss MS cohort</t>
+  </si>
+  <si>
+    <t>UK Biobank</t>
+  </si>
+  <si>
+    <t>RAdioPathomics Integrated preDiction System</t>
+  </si>
+  <si>
+    <t>LifeLines Cohort Study</t>
+  </si>
+  <si>
+    <t>Australian Longitudinal Study on Women's Health</t>
+  </si>
+  <si>
+    <t>Framingham Offspring Cohort</t>
+  </si>
+  <si>
+    <t>Copenhagen City Heart Study</t>
+  </si>
+  <si>
+    <t>Lovelace Smokers Cohort</t>
+  </si>
+  <si>
+    <t>DESTINY-CRCO1</t>
+  </si>
+  <si>
+    <t>English Longitudinal Study of Ageing</t>
+  </si>
+  <si>
+    <t>China Health and Retirement Longitudinal Study</t>
+  </si>
+  <si>
+    <t>BOLT-LMM</t>
+  </si>
+  <si>
+    <t>Women's Genome Health Study</t>
+  </si>
+  <si>
+    <t>Machine learning random forest algorithm</t>
+  </si>
+  <si>
+    <t>Support vector machine algorithm</t>
+  </si>
+  <si>
+    <t>Prospective multicenter study</t>
+  </si>
+  <si>
+    <t>ClinicalTrials.gov</t>
+  </si>
+  <si>
+    <t>Multicohort study</t>
+  </si>
+  <si>
+    <t>UKALLXII/ECOG2993 study</t>
+  </si>
+  <si>
+    <t>Lund cohort</t>
+  </si>
+  <si>
+    <t>London cohort</t>
+  </si>
+  <si>
+    <t>Early disease cohort</t>
+  </si>
+  <si>
+    <t>Norwegian Mother, Father and Child Cohort Study</t>
+  </si>
+  <si>
+    <t>Pooled cohort study</t>
+  </si>
+  <si>
+    <t>Linear mixed models</t>
+  </si>
+  <si>
+    <t>Machine learning techniques</t>
+  </si>
+  <si>
+    <t>Three independent cohorts</t>
+  </si>
+  <si>
+    <t>Nationwide Population-Based Cohort Study</t>
+  </si>
+  <si>
+    <t>Community-Based Cohort Study</t>
+  </si>
+  <si>
+    <t>Cross-sectional study</t>
+  </si>
+  <si>
+    <t>Case-control study</t>
+  </si>
+  <si>
+    <t>Longitudinal study</t>
+  </si>
+  <si>
+    <t>Prospective study</t>
+  </si>
+  <si>
+    <t>Observational study</t>
+  </si>
+  <si>
+    <t>Randomized controlled trial</t>
+  </si>
+  <si>
+    <t>Machine learning analysis</t>
+  </si>
+  <si>
+    <t>Multicenter study</t>
+  </si>
+  <si>
+    <t>Single-arm study</t>
+  </si>
+  <si>
+    <t>Open-label study</t>
+  </si>
+  <si>
+    <t>Single-center study</t>
+  </si>
+  <si>
+    <t>Crossover study</t>
+  </si>
+  <si>
+    <t>Parallel-group study</t>
+  </si>
+  <si>
+    <t>Time-to-event analysis</t>
+  </si>
+  <si>
+    <t>Mixed-effects model</t>
+  </si>
+  <si>
+    <t>Random forest algorithm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -329,7 +445,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -364,7 +480,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -539,352 +655,532 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A66"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="K104" sqref="K104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>0</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/研究方法抽取代码/forTest2.xlsx
+++ b/研究方法抽取代码/forTest2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\yuan\work\sjPaper\code\研究方法抽取代码\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27945" windowHeight="11775"/>
+    <workbookView windowWidth="27945" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Abstract</t>
   </si>
@@ -70,21 +65,12 @@
     <t>LIFE Child study</t>
   </si>
   <si>
-    <t>Longitudinal cohort</t>
-  </si>
-  <si>
     <t>Japan Environment and Children's Study</t>
   </si>
   <si>
-    <t>cross-sectional and case control</t>
-  </si>
-  <si>
     <t>Danish National Birth Cohort</t>
   </si>
   <si>
-    <t>Sub-Cohort Study</t>
-  </si>
-  <si>
     <t>STROCSS guideline</t>
   </si>
   <si>
@@ -145,9 +131,6 @@
     <t>DELINEATE</t>
   </si>
   <si>
-    <t>STROCSS 2019 guideline</t>
-  </si>
-  <si>
     <t>BioFINDER</t>
   </si>
   <si>
@@ -184,9 +167,6 @@
     <t>Rotterdam Study</t>
   </si>
   <si>
-    <t>Retrospective cohort study</t>
-  </si>
-  <si>
     <t>Avon Longitudinal Study of Parents and Children</t>
   </si>
   <si>
@@ -196,9 +176,6 @@
     <t>National Health Insurance Service-Health Screening Cohort</t>
   </si>
   <si>
-    <t>Prospective cohort study</t>
-  </si>
-  <si>
     <t>Adolescent cohort study</t>
   </si>
   <si>
@@ -247,21 +224,9 @@
     <t>Women's Genome Health Study</t>
   </si>
   <si>
-    <t>Machine learning random forest algorithm</t>
-  </si>
-  <si>
-    <t>Support vector machine algorithm</t>
-  </si>
-  <si>
     <t>Prospective multicenter study</t>
   </si>
   <si>
-    <t>ClinicalTrials.gov</t>
-  </si>
-  <si>
-    <t>Multicohort study</t>
-  </si>
-  <si>
     <t>UKALLXII/ECOG2993 study</t>
   </si>
   <si>
@@ -275,79 +240,19 @@
   </si>
   <si>
     <t>Norwegian Mother, Father and Child Cohort Study</t>
-  </si>
-  <si>
-    <t>Pooled cohort study</t>
-  </si>
-  <si>
-    <t>Linear mixed models</t>
-  </si>
-  <si>
-    <t>Machine learning techniques</t>
-  </si>
-  <si>
-    <t>Three independent cohorts</t>
-  </si>
-  <si>
-    <t>Nationwide Population-Based Cohort Study</t>
-  </si>
-  <si>
-    <t>Community-Based Cohort Study</t>
-  </si>
-  <si>
-    <t>Cross-sectional study</t>
-  </si>
-  <si>
-    <t>Case-control study</t>
-  </si>
-  <si>
-    <t>Longitudinal study</t>
-  </si>
-  <si>
-    <t>Prospective study</t>
-  </si>
-  <si>
-    <t>Observational study</t>
-  </si>
-  <si>
-    <t>Randomized controlled trial</t>
-  </si>
-  <si>
-    <t>Machine learning analysis</t>
-  </si>
-  <si>
-    <t>Multicenter study</t>
-  </si>
-  <si>
-    <t>Single-arm study</t>
-  </si>
-  <si>
-    <t>Open-label study</t>
-  </si>
-  <si>
-    <t>Single-center study</t>
-  </si>
-  <si>
-    <t>Crossover study</t>
-  </si>
-  <si>
-    <t>Parallel-group study</t>
-  </si>
-  <si>
-    <t>Time-to-event analysis</t>
-  </si>
-  <si>
-    <t>Mixed-effects model</t>
-  </si>
-  <si>
-    <t>Random forest algorithm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,22 +261,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -379,24 +607,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -654,537 +1168,377 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="K104" sqref="K104"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>102</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>